--- a/collection/ledger.xlsx
+++ b/collection/ledger.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyiwen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyiwen/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330E6CB1-7C43-8743-A1CA-8D79B6F11F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6857495A-B810-7B4F-A206-F9BC75FEBD29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3140" yWindow="460" windowWidth="28240" windowHeight="17440" xr2:uid="{85C4D7F2-316B-A44B-A6CF-C13285E1AED3}"/>
+    <workbookView xWindow="-220" yWindow="3040" windowWidth="28240" windowHeight="17440" xr2:uid="{85C4D7F2-316B-A44B-A6CF-C13285E1AED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="289">
   <si>
     <t>Indoor Plants</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1050,6 +1050,67 @@
   <si>
     <t>&lt;1.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>African mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clivia</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfnt9nugj30fu0kl0u3.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfotw45qj30rs0rs0tx.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfp2cidjj30u01eznnk.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfpbp407j30k00nwmxy.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfpkk144j30u00u0jxo.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfpx7vntj30rs0rs0vy.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfq76q9kj309m0cigqq.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfqh723xj306y0afaa4.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfr6uqzgj31400u07wh.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfrey9bqj30rs0rsdh9.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfsbheu1j30oq0xc799.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfsku601j30m80m875v.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfsx7v5ij30ci0ci3ys.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpft6qnxfj30bo0dv43j.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpftf8pinj30nc0ncgni.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpftnuycmj30oq0ukq5z.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfugkklqj30rs12btcr.jpg</t>
+  </si>
+  <si>
+    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfuroid8j30q40q4786.jpg</t>
   </si>
 </sst>
 </file>
@@ -1428,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE5B01F-37FB-FC4F-BF91-595C05E56BCC}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C101" sqref="C101"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1441,6 +1502,7 @@
     <col min="4" max="4" width="43.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1472,6 +1534,9 @@
       </c>
     </row>
     <row r="3" spans="1:8">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -1490,8 +1555,14 @@
       <c r="G3">
         <v>0.4</v>
       </c>
+      <c r="H3" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -1510,8 +1581,14 @@
       <c r="G4" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="H4" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5">
+        <v>3</v>
+      </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -1530,8 +1607,14 @@
       <c r="G5" t="s">
         <v>71</v>
       </c>
+      <c r="H5" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
+      <c r="A6">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -1550,8 +1633,14 @@
       <c r="G6" t="s">
         <v>72</v>
       </c>
+      <c r="H6" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -1570,8 +1659,14 @@
       <c r="G7" t="s">
         <v>73</v>
       </c>
+      <c r="H7" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -1590,8 +1685,14 @@
       <c r="G8">
         <v>0.6</v>
       </c>
+      <c r="H8" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -1610,8 +1711,14 @@
       <c r="G9">
         <v>1.2</v>
       </c>
+      <c r="H9" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
+      <c r="A10">
+        <v>8</v>
+      </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -1630,8 +1737,14 @@
       <c r="G10" t="s">
         <v>74</v>
       </c>
+      <c r="H10" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -1650,8 +1763,14 @@
       <c r="G11" t="s">
         <v>75</v>
       </c>
+      <c r="H11" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
@@ -1670,8 +1789,14 @@
       <c r="G12">
         <v>0.9</v>
       </c>
+      <c r="H12" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
@@ -1690,8 +1815,14 @@
       <c r="G13" t="s">
         <v>76</v>
       </c>
+      <c r="H13" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
@@ -1710,8 +1841,14 @@
       <c r="G14" t="s">
         <v>78</v>
       </c>
+      <c r="H14" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
@@ -1730,8 +1867,14 @@
       <c r="G15">
         <v>0.94</v>
       </c>
+      <c r="H15" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
+      <c r="A16">
+        <v>14</v>
+      </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
@@ -1750,8 +1893,14 @@
       <c r="G16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="H16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>15</v>
+      </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
@@ -1770,8 +1919,14 @@
       <c r="G17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="2:7">
+      <c r="H17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>16</v>
+      </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
@@ -1790,8 +1945,14 @@
       <c r="G18">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="2:7">
+      <c r="H18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
       <c r="B19" t="s">
         <v>20</v>
       </c>
@@ -1810,8 +1971,14 @@
       <c r="G19">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="20" spans="2:7">
+      <c r="H19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
       <c r="B20" t="s">
         <v>58</v>
       </c>
@@ -1830,8 +1997,14 @@
       <c r="G20" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="21" spans="2:7">
+      <c r="H20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>19</v>
+      </c>
       <c r="B21" t="s">
         <v>59</v>
       </c>
@@ -1851,7 +2024,10 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>20</v>
+      </c>
       <c r="B22" t="s">
         <v>80</v>
       </c>
@@ -1871,7 +2047,10 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>21</v>
+      </c>
       <c r="B23" t="s">
         <v>84</v>
       </c>
@@ -1891,7 +2070,10 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>22</v>
+      </c>
       <c r="B24" t="s">
         <v>83</v>
       </c>
@@ -1911,7 +2093,10 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>23</v>
+      </c>
       <c r="B25" t="s">
         <v>85</v>
       </c>
@@ -1931,7 +2116,10 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>24</v>
+      </c>
       <c r="B26" t="s">
         <v>86</v>
       </c>
@@ -1951,7 +2139,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>25</v>
+      </c>
       <c r="B27" t="s">
         <v>87</v>
       </c>
@@ -1971,7 +2162,10 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>26</v>
+      </c>
       <c r="B28" t="s">
         <v>88</v>
       </c>
@@ -1991,7 +2185,10 @@
         <v>166</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>27</v>
+      </c>
       <c r="B29" t="s">
         <v>89</v>
       </c>
@@ -2011,7 +2208,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>28</v>
+      </c>
       <c r="B30" t="s">
         <v>90</v>
       </c>
@@ -2031,7 +2231,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>29</v>
+      </c>
       <c r="B31" t="s">
         <v>91</v>
       </c>
@@ -2051,7 +2254,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>30</v>
+      </c>
       <c r="B32" t="s">
         <v>92</v>
       </c>
@@ -2071,7 +2277,10 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>31</v>
+      </c>
       <c r="B33" t="s">
         <v>93</v>
       </c>
@@ -2091,7 +2300,10 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>32</v>
+      </c>
       <c r="B34" t="s">
         <v>94</v>
       </c>
@@ -2111,7 +2323,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>33</v>
+      </c>
       <c r="B35" t="s">
         <v>95</v>
       </c>
@@ -2131,7 +2346,10 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>34</v>
+      </c>
       <c r="B36" t="s">
         <v>96</v>
       </c>
@@ -2151,7 +2369,10 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>35</v>
+      </c>
       <c r="B37" t="s">
         <v>97</v>
       </c>
@@ -2171,7 +2392,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>36</v>
+      </c>
       <c r="B38" t="s">
         <v>181</v>
       </c>
@@ -2191,7 +2415,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>37</v>
+      </c>
       <c r="B39" t="s">
         <v>98</v>
       </c>
@@ -2211,7 +2438,10 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>38</v>
+      </c>
       <c r="B40" t="s">
         <v>99</v>
       </c>
@@ -2231,7 +2461,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>39</v>
+      </c>
       <c r="B41" t="s">
         <v>100</v>
       </c>
@@ -2251,7 +2484,10 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>40</v>
+      </c>
       <c r="B42" t="s">
         <v>101</v>
       </c>
@@ -2271,7 +2507,10 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>41</v>
+      </c>
       <c r="B43" t="s">
         <v>102</v>
       </c>
@@ -2291,7 +2530,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>42</v>
+      </c>
       <c r="B44" t="s">
         <v>103</v>
       </c>
@@ -2311,7 +2553,10 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>43</v>
+      </c>
       <c r="B45" t="s">
         <v>104</v>
       </c>
@@ -2331,7 +2576,10 @@
         <v>190</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>44</v>
+      </c>
       <c r="B46" t="s">
         <v>105</v>
       </c>
@@ -2351,7 +2599,10 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>45</v>
+      </c>
       <c r="B47" t="s">
         <v>106</v>
       </c>
@@ -2371,7 +2622,10 @@
         <v>1.54</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>46</v>
+      </c>
       <c r="B48" t="s">
         <v>107</v>
       </c>
@@ -2391,7 +2645,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>47</v>
+      </c>
       <c r="B49" t="s">
         <v>108</v>
       </c>
@@ -2411,7 +2668,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>48</v>
+      </c>
       <c r="B50" t="s">
         <v>109</v>
       </c>
@@ -2431,7 +2691,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>49</v>
+      </c>
       <c r="B51" t="s">
         <v>110</v>
       </c>
@@ -2451,7 +2714,10 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>50</v>
+      </c>
       <c r="B52" t="s">
         <v>111</v>
       </c>
@@ -2471,7 +2737,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>51</v>
+      </c>
       <c r="B53" t="s">
         <v>112</v>
       </c>
@@ -2491,7 +2760,10 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>52</v>
+      </c>
       <c r="B54" t="s">
         <v>113</v>
       </c>
@@ -2511,7 +2783,10 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>53</v>
+      </c>
       <c r="B55" t="s">
         <v>114</v>
       </c>
@@ -2531,7 +2806,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>54</v>
+      </c>
       <c r="B56" t="s">
         <v>115</v>
       </c>
@@ -2551,7 +2829,10 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>55</v>
+      </c>
       <c r="B57" t="s">
         <v>116</v>
       </c>
@@ -2571,7 +2852,10 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>56</v>
+      </c>
       <c r="B58" t="s">
         <v>117</v>
       </c>
@@ -2591,7 +2875,10 @@
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>57</v>
+      </c>
       <c r="B59" t="s">
         <v>118</v>
       </c>
@@ -2611,7 +2898,10 @@
         <v>213</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>58</v>
+      </c>
       <c r="B60" t="s">
         <v>119</v>
       </c>
@@ -2631,7 +2921,10 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>59</v>
+      </c>
       <c r="B61" t="s">
         <v>120</v>
       </c>
@@ -2651,7 +2944,10 @@
         <v>216</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>60</v>
+      </c>
       <c r="B62" t="s">
         <v>121</v>
       </c>
@@ -2671,7 +2967,10 @@
         <v>218</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>61</v>
+      </c>
       <c r="B63" t="s">
         <v>122</v>
       </c>
@@ -2691,7 +2990,10 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>62</v>
+      </c>
       <c r="B64" t="s">
         <v>123</v>
       </c>
@@ -2711,7 +3013,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>63</v>
+      </c>
       <c r="B65" t="s">
         <v>124</v>
       </c>
@@ -2731,7 +3036,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>64</v>
+      </c>
       <c r="B66" t="s">
         <v>125</v>
       </c>
@@ -2751,7 +3059,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>65</v>
+      </c>
       <c r="B67" t="s">
         <v>126</v>
       </c>
@@ -2771,7 +3082,10 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>66</v>
+      </c>
       <c r="B68" t="s">
         <v>127</v>
       </c>
@@ -2791,7 +3105,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>67</v>
+      </c>
       <c r="B69" t="s">
         <v>128</v>
       </c>
@@ -2811,7 +3128,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>68</v>
+      </c>
       <c r="B70" t="s">
         <v>129</v>
       </c>
@@ -2831,7 +3151,10 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>69</v>
+      </c>
       <c r="B71" t="s">
         <v>130</v>
       </c>
@@ -2851,7 +3174,10 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>70</v>
+      </c>
       <c r="B72" t="s">
         <v>131</v>
       </c>
@@ -2871,7 +3197,10 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>71</v>
+      </c>
       <c r="B73" t="s">
         <v>132</v>
       </c>
@@ -2891,7 +3220,10 @@
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>72</v>
+      </c>
       <c r="B74" t="s">
         <v>133</v>
       </c>
@@ -2911,7 +3243,10 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>73</v>
+      </c>
       <c r="B75" t="s">
         <v>134</v>
       </c>
@@ -2931,7 +3266,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>74</v>
+      </c>
       <c r="B76" t="s">
         <v>135</v>
       </c>
@@ -2951,7 +3289,10 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>75</v>
+      </c>
       <c r="B77" t="s">
         <v>136</v>
       </c>
@@ -2971,7 +3312,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="1:7">
+      <c r="A78">
+        <v>76</v>
+      </c>
       <c r="B78" t="s">
         <v>137</v>
       </c>
@@ -2991,7 +3335,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="1:7">
+      <c r="A79">
+        <v>77</v>
+      </c>
       <c r="B79" t="s">
         <v>138</v>
       </c>
@@ -3011,7 +3358,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="1:7">
+      <c r="A80">
+        <v>78</v>
+      </c>
       <c r="B80" t="s">
         <v>139</v>
       </c>
@@ -3031,7 +3381,10 @@
         <v>239</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="1:7">
+      <c r="A81">
+        <v>79</v>
+      </c>
       <c r="B81" t="s">
         <v>140</v>
       </c>
@@ -3051,7 +3404,10 @@
         <v>240</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="1:7">
+      <c r="A82">
+        <v>80</v>
+      </c>
       <c r="B82" t="s">
         <v>141</v>
       </c>
@@ -3071,7 +3427,10 @@
         <v>242</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="1:7">
+      <c r="A83">
+        <v>81</v>
+      </c>
       <c r="B83" t="s">
         <v>142</v>
       </c>
@@ -3091,7 +3450,10 @@
         <v>243</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="1:7">
+      <c r="A84">
+        <v>82</v>
+      </c>
       <c r="B84" t="s">
         <v>143</v>
       </c>
@@ -3111,7 +3473,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="1:7">
+      <c r="A85">
+        <v>83</v>
+      </c>
       <c r="B85" t="s">
         <v>144</v>
       </c>
@@ -3131,7 +3496,10 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="1:7">
+      <c r="A86">
+        <v>84</v>
+      </c>
       <c r="B86" t="s">
         <v>145</v>
       </c>
@@ -3151,7 +3519,10 @@
         <v>248</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="1:7">
+      <c r="A87">
+        <v>85</v>
+      </c>
       <c r="B87" t="s">
         <v>146</v>
       </c>
@@ -3171,7 +3542,10 @@
         <v>250</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="1:7">
+      <c r="A88">
+        <v>86</v>
+      </c>
       <c r="B88" t="s">
         <v>147</v>
       </c>
@@ -3191,7 +3565,10 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="1:7">
+      <c r="A89">
+        <v>87</v>
+      </c>
       <c r="B89" t="s">
         <v>148</v>
       </c>
@@ -3211,7 +3588,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="1:7">
+      <c r="A90">
+        <v>88</v>
+      </c>
       <c r="B90" t="s">
         <v>149</v>
       </c>
@@ -3231,7 +3611,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="1:7">
+      <c r="A91">
+        <v>89</v>
+      </c>
       <c r="B91" t="s">
         <v>150</v>
       </c>
@@ -3251,7 +3634,10 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="1:7">
+      <c r="A92">
+        <v>90</v>
+      </c>
       <c r="B92" t="s">
         <v>151</v>
       </c>
@@ -3271,7 +3657,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="1:7">
+      <c r="A93">
+        <v>91</v>
+      </c>
       <c r="B93" t="s">
         <v>152</v>
       </c>
@@ -3291,7 +3680,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="1:7">
+      <c r="A94">
+        <v>92</v>
+      </c>
       <c r="B94" t="s">
         <v>153</v>
       </c>
@@ -3311,7 +3703,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="1:7">
+      <c r="A95">
+        <v>93</v>
+      </c>
       <c r="B95" t="s">
         <v>154</v>
       </c>
@@ -3331,7 +3726,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="1:7">
+      <c r="A96">
+        <v>94</v>
+      </c>
       <c r="B96" t="s">
         <v>155</v>
       </c>
@@ -3351,7 +3749,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="1:7">
+      <c r="A97">
+        <v>95</v>
+      </c>
       <c r="B97" t="s">
         <v>156</v>
       </c>
@@ -3371,7 +3772,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="1:7">
+      <c r="A98">
+        <v>96</v>
+      </c>
       <c r="B98" t="s">
         <v>128</v>
       </c>
@@ -3391,7 +3795,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="1:7">
+      <c r="A99">
+        <v>97</v>
+      </c>
       <c r="B99" t="s">
         <v>157</v>
       </c>
@@ -3411,7 +3818,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="1:7">
+      <c r="A100">
+        <v>98</v>
+      </c>
       <c r="B100" t="s">
         <v>158</v>
       </c>
@@ -3429,6 +3839,52 @@
       </c>
       <c r="G100" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>269</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" t="s">
+        <v>201</v>
+      </c>
+      <c r="E101" t="s">
+        <v>182</v>
+      </c>
+      <c r="F101" t="s">
+        <v>63</v>
+      </c>
+      <c r="G101">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>270</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D102" t="s">
+        <v>56</v>
+      </c>
+      <c r="E102" t="s">
+        <v>161</v>
+      </c>
+      <c r="F102" t="s">
+        <v>68</v>
+      </c>
+      <c r="G102" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/collection/ledger.xlsx
+++ b/collection/ledger.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linyiwen/collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6857495A-B810-7B4F-A206-F9BC75FEBD29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AEFA38-1760-F14C-9D89-ACEB128411F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-220" yWindow="3040" windowWidth="28240" windowHeight="17440" xr2:uid="{85C4D7F2-316B-A44B-A6CF-C13285E1AED3}"/>
+    <workbookView xWindow="5120" yWindow="2420" windowWidth="28240" windowHeight="17440" xr2:uid="{85C4D7F2-316B-A44B-A6CF-C13285E1AED3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="371">
   <si>
     <t>Indoor Plants</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,669 +455,922 @@
     <t>Aloe vera</t>
   </si>
   <si>
+    <t>Burro's-tail</t>
+  </si>
+  <si>
+    <t>Portulacaria afra</t>
+  </si>
+  <si>
+    <t>Spiral aloe</t>
+  </si>
+  <si>
+    <t>Haworthiopsis limifolia</t>
+  </si>
+  <si>
+    <t>Haworthia cooperi</t>
+  </si>
+  <si>
+    <t>Haworthia cymbiformis</t>
+  </si>
+  <si>
+    <t>Hatiora salicornioides</t>
+  </si>
+  <si>
+    <t>Peyote</t>
+  </si>
+  <si>
+    <t>Haworthia truncata</t>
+  </si>
+  <si>
+    <t>Eastern Prickly Pear</t>
+  </si>
+  <si>
+    <t>Cape aloe</t>
+  </si>
+  <si>
+    <t>Astrophytum asterias</t>
+  </si>
+  <si>
+    <t>Parodia magnifica</t>
+  </si>
+  <si>
+    <t>Pereskia aculeata</t>
+  </si>
+  <si>
+    <t>Jasmine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Geraniums</t>
+  </si>
+  <si>
+    <t>Cape primrose</t>
+  </si>
+  <si>
+    <t>Poinsettia</t>
+  </si>
+  <si>
+    <t>Asparagus setaceus</t>
+  </si>
+  <si>
+    <t>Daisy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Echeveria</t>
+  </si>
+  <si>
+    <t>Polka dot plant</t>
+  </si>
+  <si>
+    <t>Hyacinth</t>
+  </si>
+  <si>
+    <t>Lavender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panda plant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flapjacks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paddle plant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kalanchoe Panamensis</t>
+  </si>
+  <si>
+    <t>Gasteria batesiana</t>
+  </si>
+  <si>
+    <t>Hedgehog aloe</t>
+  </si>
+  <si>
+    <t>Tiger tooth aloe</t>
+  </si>
+  <si>
+    <t>Rhipsalis cereuscula</t>
+  </si>
+  <si>
+    <t>Gymnocalycium mihanovichii</t>
+  </si>
+  <si>
+    <t>Haworthia retusa</t>
+  </si>
+  <si>
+    <t>Aloe brevifolia</t>
+  </si>
+  <si>
+    <t>Queen of the Night</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fishbone cactus</t>
+  </si>
+  <si>
+    <t>Lophophora</t>
+  </si>
+  <si>
+    <t>Mammillaria</t>
+  </si>
+  <si>
+    <t>Hedgehog cacti</t>
+  </si>
+  <si>
+    <t>Golden barrel cactus</t>
+  </si>
+  <si>
+    <t>Fasciated haworthia</t>
+  </si>
+  <si>
+    <t>Haworthia bayeri</t>
+  </si>
+  <si>
+    <t>Haworthia koelmaniorum</t>
+  </si>
+  <si>
+    <t>Ficus microcarpa</t>
+  </si>
+  <si>
+    <t>Ficus retusa</t>
+  </si>
+  <si>
+    <t>Philodendron erubescens</t>
+  </si>
+  <si>
+    <t>Bunch-flowered daffodil</t>
+  </si>
+  <si>
+    <t>Nephthytis</t>
+  </si>
+  <si>
+    <t>1-5 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>once per week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bright indirect light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-3 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;3 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preferably plenty of light but can bear low light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;20 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15~0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3~0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1 year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2~0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Every 3-4 weeks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bright direct sunlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;25years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-100years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Every 2-3 weeks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;1 year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;15 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5~2.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~5 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String of pearls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diffused light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2~3 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~100 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~50 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~7.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>low light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;25 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.25~0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;2 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indirect sunlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bright light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bright/direct sunlight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2 weeks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4~12 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6~1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05~0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~10 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water completely and wait till soil dry mostly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no more than once per month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30~50 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;1 years </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4~3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.07~0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;50 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5~20 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.07~0.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400~600 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.02~0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;3000 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5~2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8~2.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drought tolerant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2~0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.07~0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ideally mild,high cold tolerance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;60 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10~30 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.04~4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15~20 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 ~40 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preferably direct sunlight 4~6 h per day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3~0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~2 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6~4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5~2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;20 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3~4 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mildly wet always</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;4 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;15 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>die after flowering</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3~1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3~0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.24~0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;70 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>once per month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;5 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preferably direct sunlight 6~8 h per day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;3.04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;7 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;30 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Every 2 weeks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-100 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Every 4 days</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;100 years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04~0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>medium light</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;3.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3~0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;3 weeks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;1.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>African mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clivia</t>
+  </si>
+  <si>
+    <t>img/1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/2.jpg</t>
+  </si>
+  <si>
+    <t>img/3.jpg</t>
+  </si>
+  <si>
+    <t>img/4.jpg</t>
+  </si>
+  <si>
+    <t>img/5.jpg</t>
+  </si>
+  <si>
+    <t>img/6.jpg</t>
+  </si>
+  <si>
+    <t>img/8.jpg</t>
+  </si>
+  <si>
+    <t>img/9.jpg</t>
+  </si>
+  <si>
+    <t>img/10.jpg</t>
+  </si>
+  <si>
+    <t>img/11.jpg</t>
+  </si>
+  <si>
+    <t>img/12.jpg</t>
+  </si>
+  <si>
+    <t>img/13.jpg</t>
+  </si>
+  <si>
+    <t>img/15.jpg</t>
+  </si>
+  <si>
+    <t>img/16.jpg</t>
+  </si>
+  <si>
+    <t>img/17.jpg</t>
+  </si>
+  <si>
+    <t>img/18.jpg</t>
+  </si>
+  <si>
+    <t>img/20.jpg</t>
+  </si>
+  <si>
+    <t>img/21.jpg</t>
+  </si>
+  <si>
+    <t>img/22.jpg</t>
+  </si>
+  <si>
+    <t>img/23.jpg</t>
+  </si>
+  <si>
+    <t>img/24.jpg</t>
+  </si>
+  <si>
+    <t>img/25.jpg</t>
+  </si>
+  <si>
+    <t>img/26.jpg</t>
+  </si>
+  <si>
+    <t>img/27.jpg</t>
+  </si>
+  <si>
+    <t>img/29.jpg</t>
+  </si>
+  <si>
+    <t>img/30.jpg</t>
+  </si>
+  <si>
+    <t>img/31.jpg</t>
+  </si>
+  <si>
+    <t>img/7.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/14.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/19.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/28.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Echeveria elegans</t>
-  </si>
-  <si>
-    <t>Burro's-tail</t>
-  </si>
-  <si>
-    <t>Portulacaria afra</t>
-  </si>
-  <si>
-    <t>Spiral aloe</t>
-  </si>
-  <si>
-    <t>Haworthiopsis limifolia</t>
-  </si>
-  <si>
-    <t>Haworthia cooperi</t>
-  </si>
-  <si>
-    <t>Haworthia cymbiformis</t>
-  </si>
-  <si>
-    <t>Hatiora salicornioides</t>
-  </si>
-  <si>
-    <t>Peyote</t>
-  </si>
-  <si>
-    <t>Haworthia truncata</t>
-  </si>
-  <si>
-    <t>Eastern Prickly Pear</t>
-  </si>
-  <si>
-    <t>Cape aloe</t>
-  </si>
-  <si>
-    <t>Astrophytum asterias</t>
-  </si>
-  <si>
-    <t>Parodia magnifica</t>
-  </si>
-  <si>
-    <t>Pereskia aculeata</t>
-  </si>
-  <si>
-    <t>Jasmine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Geraniums</t>
-  </si>
-  <si>
-    <t>Cape primrose</t>
-  </si>
-  <si>
-    <t>Poinsettia</t>
-  </si>
-  <si>
-    <t>Asparagus setaceus</t>
-  </si>
-  <si>
-    <t>Daisy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Echeveria</t>
-  </si>
-  <si>
-    <t>Polka dot plant</t>
-  </si>
-  <si>
-    <t>Hyacinth</t>
-  </si>
-  <si>
-    <t>Lavender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Panda plant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Flapjacks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Paddle plant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kalanchoe Panamensis</t>
-  </si>
-  <si>
-    <t>Gasteria batesiana</t>
-  </si>
-  <si>
-    <t>Hedgehog aloe</t>
-  </si>
-  <si>
-    <t>Tiger tooth aloe</t>
-  </si>
-  <si>
-    <t>Rhipsalis cereuscula</t>
-  </si>
-  <si>
-    <t>Gymnocalycium mihanovichii</t>
-  </si>
-  <si>
-    <t>Haworthia retusa</t>
-  </si>
-  <si>
-    <t>Aloe brevifolia</t>
-  </si>
-  <si>
-    <t>Queen of the Night</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fishbone cactus</t>
-  </si>
-  <si>
-    <t>Lophophora</t>
-  </si>
-  <si>
-    <t>Mammillaria</t>
-  </si>
-  <si>
-    <t>Hedgehog cacti</t>
-  </si>
-  <si>
-    <t>Golden barrel cactus</t>
-  </si>
-  <si>
-    <t>Fasciated haworthia</t>
-  </si>
-  <si>
-    <t>Haworthia bayeri</t>
-  </si>
-  <si>
-    <t>Haworthia koelmaniorum</t>
-  </si>
-  <si>
-    <t>Ficus microcarpa</t>
-  </si>
-  <si>
-    <t>Ficus retusa</t>
-  </si>
-  <si>
-    <t>Philodendron erubescens</t>
-  </si>
-  <si>
-    <t>Bunch-flowered daffodil</t>
-  </si>
-  <si>
-    <t>Nephthytis</t>
-  </si>
-  <si>
-    <t>1-5 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>once per week</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bright indirect light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2-3 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;3 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preferably plenty of light but can bear low light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8~2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;20 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.15~0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3~0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1 year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2~0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Every 3-4 weeks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bright direct sunlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;25years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-100years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Every 2-3 weeks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;1 year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;15 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5~2.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2~5 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String of pearls</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>diffused light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2~3 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~100 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4~50 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~7.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>low light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;25 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.25~0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;2 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>indirect sunlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bright light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bright/direct sunlight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2 weeks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4~12 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6~1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.05~0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~10 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>water completely and wait till soil dry mostly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no more than once per month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30~50 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;1 years </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4~3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.07~0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;50 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5~20 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.07~0.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400~600 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.02~0.07</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;3000 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5~2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.8~2.7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drought tolerant</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2~0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.07~0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ideally mild,high cold tolerance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;60 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10~30 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.04~4.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15~20 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 ~40 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preferably direct sunlight 4~6 h per day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3~0.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1~2 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.6~4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5~2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;20 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3~4 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mildly wet always</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;4 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;15 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>die after flowering</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3~1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3~0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.24~0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;70 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>once per month</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;5 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Preferably direct sunlight 6~8 h per day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;3.04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;7 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;30 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Every 2 weeks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;0.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-100 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Every 4 days</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;100 years</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.04~0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;0.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>medium light</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;3.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;2.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3~0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&gt;3 weeks</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;1.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>African mask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Clivia</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfnt9nugj30fu0kl0u3.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfotw45qj30rs0rs0tx.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfp2cidjj30u01eznnk.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfpbp407j30k00nwmxy.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfpkk144j30u00u0jxo.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfpx7vntj30rs0rs0vy.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfq76q9kj309m0cigqq.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfqh723xj306y0afaa4.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfr6uqzgj31400u07wh.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfrey9bqj30rs0rsdh9.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfsbheu1j30oq0xc799.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfsku601j30m80m875v.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfsx7v5ij30ci0ci3ys.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpft6qnxfj30bo0dv43j.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpftf8pinj30nc0ncgni.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpftnuycmj30oq0ukq5z.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfugkklqj30rs12btcr.jpg</t>
-  </si>
-  <si>
-    <t>https://tva1.sinaimg.cn/large/00831rSTgy1gdpfuroid8j30q40q4786.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/32.jpg</t>
+  </si>
+  <si>
+    <t>img/33.jpg</t>
+  </si>
+  <si>
+    <t>img/34.jpg</t>
+  </si>
+  <si>
+    <t>img/35.jpg</t>
+  </si>
+  <si>
+    <t>img/36.jpg</t>
+  </si>
+  <si>
+    <t>img/37.jpg</t>
+  </si>
+  <si>
+    <t>img/38.jpg</t>
+  </si>
+  <si>
+    <t>img/39.jpg</t>
+  </si>
+  <si>
+    <t>img/40.jpg</t>
+  </si>
+  <si>
+    <t>img/41.jpg</t>
+  </si>
+  <si>
+    <t>img/42.jpg</t>
+  </si>
+  <si>
+    <t>img/43.jpg</t>
+  </si>
+  <si>
+    <t>img/44.jpg</t>
+  </si>
+  <si>
+    <t>img/45.jpg</t>
+  </si>
+  <si>
+    <t>img/46.jpg</t>
+  </si>
+  <si>
+    <t>img/47.jpg</t>
+  </si>
+  <si>
+    <t>img/48.jpg</t>
+  </si>
+  <si>
+    <t>img/49.jpg</t>
+  </si>
+  <si>
+    <t>img/50.jpg</t>
+  </si>
+  <si>
+    <t>img/52.jpg</t>
+  </si>
+  <si>
+    <t>img/51.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>img/53.jpg</t>
+  </si>
+  <si>
+    <t>img/54.jpg</t>
+  </si>
+  <si>
+    <t>img/55.jpg</t>
+  </si>
+  <si>
+    <t>img/56.jpg</t>
+  </si>
+  <si>
+    <t>img/57.jpg</t>
+  </si>
+  <si>
+    <t>img/58.jpg</t>
+  </si>
+  <si>
+    <t>img/59.jpg</t>
+  </si>
+  <si>
+    <t>img/60.jpg</t>
+  </si>
+  <si>
+    <t>img/61.jpg</t>
+  </si>
+  <si>
+    <t>img/62.jpg</t>
+  </si>
+  <si>
+    <t>img/63.jpg</t>
+  </si>
+  <si>
+    <t>img/64.jpg</t>
+  </si>
+  <si>
+    <t>img/65.jpg</t>
+  </si>
+  <si>
+    <t>img/66.jpg</t>
+  </si>
+  <si>
+    <t>img/67.jpg</t>
+  </si>
+  <si>
+    <t>img/68.jpg</t>
+  </si>
+  <si>
+    <t>img/69.jpg</t>
+  </si>
+  <si>
+    <t>img/70.jpg</t>
+  </si>
+  <si>
+    <t>img/71.jpg</t>
+  </si>
+  <si>
+    <t>img/72.jpg</t>
+  </si>
+  <si>
+    <t>img/73.jpg</t>
+  </si>
+  <si>
+    <t>img/74.jpg</t>
+  </si>
+  <si>
+    <t>img/75.jpg</t>
+  </si>
+  <si>
+    <t>img/76.jpg</t>
+  </si>
+  <si>
+    <t>img/77.jpg</t>
+  </si>
+  <si>
+    <t>img/78.jpg</t>
+  </si>
+  <si>
+    <t>img/79.jpg</t>
+  </si>
+  <si>
+    <t>img/80.jpg</t>
+  </si>
+  <si>
+    <t>img/81.jpg</t>
+  </si>
+  <si>
+    <t>img/82.jpg</t>
+  </si>
+  <si>
+    <t>img/83.jpg</t>
+  </si>
+  <si>
+    <t>img/84.jpg</t>
+  </si>
+  <si>
+    <t>img/85.jpg</t>
+  </si>
+  <si>
+    <t>img/86.jpg</t>
+  </si>
+  <si>
+    <t>img/87.jpg</t>
+  </si>
+  <si>
+    <t>img/88.jpg</t>
+  </si>
+  <si>
+    <t>img/89.jpg</t>
+  </si>
+  <si>
+    <t>img/90.jpg</t>
+  </si>
+  <si>
+    <t>img/91.jpg</t>
+  </si>
+  <si>
+    <t>img/92.jpg</t>
+  </si>
+  <si>
+    <t>img/93.jpg</t>
+  </si>
+  <si>
+    <t>img/94.jpg</t>
+  </si>
+  <si>
+    <t>img/95.jpg</t>
+  </si>
+  <si>
+    <t>img/96.jpg</t>
+  </si>
+  <si>
+    <t>img/97.jpg</t>
+  </si>
+  <si>
+    <t>img/98.jpg</t>
+  </si>
+  <si>
+    <t>img/99.jpg</t>
+  </si>
+  <si>
+    <t>img/100.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1133,8 +1386,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,6 +1406,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1157,12 +1425,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1175,9 +1446,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1491,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE5B01F-37FB-FC4F-BF91-595C05E56BCC}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1555,8 +1833,8 @@
       <c r="G3">
         <v>0.4</v>
       </c>
-      <c r="H3" t="s">
-        <v>271</v>
+      <c r="H3" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1581,8 +1859,8 @@
       <c r="G4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="H4" t="s">
-        <v>272</v>
+      <c r="H4" s="4" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1607,8 +1885,8 @@
       <c r="G5" t="s">
         <v>71</v>
       </c>
-      <c r="H5" t="s">
-        <v>273</v>
+      <c r="H5" s="4" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1633,8 +1911,8 @@
       <c r="G6" t="s">
         <v>72</v>
       </c>
-      <c r="H6" t="s">
-        <v>274</v>
+      <c r="H6" s="4" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1659,8 +1937,8 @@
       <c r="G7" t="s">
         <v>73</v>
       </c>
-      <c r="H7" t="s">
-        <v>275</v>
+      <c r="H7" s="4" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1685,8 +1963,8 @@
       <c r="G8">
         <v>0.6</v>
       </c>
-      <c r="H8" t="s">
-        <v>276</v>
+      <c r="H8" s="4" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1711,8 +1989,8 @@
       <c r="G9">
         <v>1.2</v>
       </c>
-      <c r="H9" t="s">
-        <v>277</v>
+      <c r="H9" s="4" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1737,8 +2015,8 @@
       <c r="G10" t="s">
         <v>74</v>
       </c>
-      <c r="H10" t="s">
-        <v>278</v>
+      <c r="H10" s="4" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1763,8 +2041,8 @@
       <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="H11" t="s">
-        <v>279</v>
+      <c r="H11" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1789,8 +2067,8 @@
       <c r="G12">
         <v>0.9</v>
       </c>
-      <c r="H12" t="s">
-        <v>280</v>
+      <c r="H12" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1815,8 +2093,8 @@
       <c r="G13" t="s">
         <v>76</v>
       </c>
-      <c r="H13" t="s">
-        <v>281</v>
+      <c r="H13" s="4" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1841,8 +2119,8 @@
       <c r="G14" t="s">
         <v>78</v>
       </c>
-      <c r="H14" t="s">
-        <v>282</v>
+      <c r="H14" s="4" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1867,8 +2145,8 @@
       <c r="G15">
         <v>0.94</v>
       </c>
-      <c r="H15" t="s">
-        <v>283</v>
+      <c r="H15" s="4" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1893,8 +2171,8 @@
       <c r="G16" t="s">
         <v>79</v>
       </c>
-      <c r="H16" t="s">
-        <v>284</v>
+      <c r="H16" s="4" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1919,8 +2197,8 @@
       <c r="G17">
         <v>20</v>
       </c>
-      <c r="H17" t="s">
-        <v>285</v>
+      <c r="H17" s="4" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1945,8 +2223,8 @@
       <c r="G18">
         <v>29</v>
       </c>
-      <c r="H18" t="s">
-        <v>286</v>
+      <c r="H18" s="4" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1971,15 +2249,15 @@
       <c r="G19">
         <v>1.5</v>
       </c>
-      <c r="H19" t="s">
-        <v>287</v>
+      <c r="H19" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C20" t="s">
@@ -1997,15 +2275,15 @@
       <c r="G20" t="s">
         <v>77</v>
       </c>
-      <c r="H20" t="s">
-        <v>288</v>
+      <c r="H20" s="4" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C21" t="s">
@@ -2022,13 +2300,16 @@
       </c>
       <c r="G21">
         <v>0.9</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C22" t="s">
@@ -2045,36 +2326,42 @@
       </c>
       <c r="G22">
         <v>0.7</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" t="s">
         <v>159</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>160</v>
-      </c>
-      <c r="E23" t="s">
-        <v>161</v>
       </c>
       <c r="F23" t="s">
         <v>63</v>
       </c>
       <c r="G23">
         <v>0.91</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>83</v>
       </c>
       <c r="C24" t="s">
@@ -2084,24 +2371,27 @@
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F24" t="s">
         <v>68</v>
       </c>
       <c r="G24">
         <v>0.3</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
@@ -2114,40 +2404,46 @@
       </c>
       <c r="G25">
         <v>0.6</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F26" t="s">
         <v>61</v>
       </c>
       <c r="G26">
         <v>3</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -2160,13 +2456,16 @@
       </c>
       <c r="G27">
         <v>0.6</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C28" t="s">
@@ -2176,24 +2475,27 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F28" t="s">
         <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>166</v>
+        <v>165</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -2205,18 +2507,21 @@
         <v>68</v>
       </c>
       <c r="G29" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -2228,18 +2533,21 @@
         <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D31" t="s">
         <v>56</v>
@@ -2251,24 +2559,27 @@
         <v>63</v>
       </c>
       <c r="G31" t="s">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>92</v>
       </c>
       <c r="C32" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D32" t="s">
+        <v>171</v>
+      </c>
+      <c r="E32" t="s">
         <v>172</v>
-      </c>
-      <c r="E32" t="s">
-        <v>173</v>
       </c>
       <c r="F32" t="s">
         <v>68</v>
@@ -2276,22 +2587,25 @@
       <c r="G32">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D33" t="s">
         <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F33" t="s">
         <v>63</v>
@@ -2299,19 +2613,22 @@
       <c r="G33">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>94</v>
       </c>
       <c r="C34" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" t="s">
         <v>175</v>
-      </c>
-      <c r="D34" t="s">
-        <v>176</v>
       </c>
       <c r="E34" t="s">
         <v>41</v>
@@ -2322,19 +2639,22 @@
       <c r="G34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E35" t="s">
         <v>52</v>
@@ -2345,22 +2665,25 @@
       <c r="G35">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>96</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F36" t="s">
         <v>68</v>
@@ -2368,36 +2691,42 @@
       <c r="G36">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>97</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D37" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" t="s">
         <v>160</v>
       </c>
-      <c r="E37" t="s">
-        <v>161</v>
-      </c>
       <c r="F37" t="s">
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>178</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>181</v>
+      <c r="B38" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
@@ -2406,7 +2735,7 @@
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F38" t="s">
         <v>63</v>
@@ -2414,22 +2743,25 @@
       <c r="G38" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D39" t="s">
         <v>56</v>
       </c>
       <c r="E39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F39" t="s">
         <v>63</v>
@@ -2437,16 +2769,19 @@
       <c r="G39">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D40" t="s">
         <v>32</v>
@@ -2458,24 +2793,27 @@
         <v>68</v>
       </c>
       <c r="G40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>170</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>100</v>
       </c>
       <c r="C41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D41" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" t="s">
         <v>160</v>
-      </c>
-      <c r="E41" t="s">
-        <v>161</v>
       </c>
       <c r="F41" t="s">
         <v>68</v>
@@ -2483,16 +2821,19 @@
       <c r="G41">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>101</v>
       </c>
       <c r="C42" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D42" t="s">
         <v>26</v>
@@ -2504,14 +2845,17 @@
         <v>68</v>
       </c>
       <c r="G42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>184</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>102</v>
       </c>
       <c r="C43" t="s">
@@ -2521,30 +2865,33 @@
         <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F43" t="s">
         <v>63</v>
       </c>
       <c r="G43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>186</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>103</v>
       </c>
       <c r="C44" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D44" t="s">
         <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F44" t="s">
         <v>68</v>
@@ -2552,45 +2899,51 @@
       <c r="G44">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="4" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>104</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D45" t="s">
         <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F45" t="s">
         <v>68</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>189</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>105</v>
       </c>
       <c r="C46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D46" t="s">
         <v>26</v>
       </c>
       <c r="E46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F46" t="s">
         <v>68</v>
@@ -2598,16 +2951,19 @@
       <c r="G46">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>106</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D47" t="s">
         <v>32</v>
@@ -2621,16 +2977,19 @@
       <c r="G47">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
         <v>32</v>
@@ -2644,42 +3003,48 @@
       <c r="G48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D49" t="s">
         <v>26</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F49" t="s">
         <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>197</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>109</v>
+      <c r="B50" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="C50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" t="s">
         <v>200</v>
-      </c>
-      <c r="D50" t="s">
-        <v>201</v>
       </c>
       <c r="E50" t="s">
         <v>41</v>
@@ -2688,24 +3053,27 @@
         <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>198</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>110</v>
+      <c r="B51" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="C51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D51" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F51" t="s">
         <v>63</v>
@@ -2713,65 +3081,74 @@
       <c r="G51">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>111</v>
+      <c r="B52" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="C52" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E52" t="s">
         <v>52</v>
       </c>
       <c r="F52" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G52" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>204</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
-        <v>112</v>
+      <c r="B53" s="5" t="s">
+        <v>111</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E53" t="s">
         <v>52</v>
       </c>
       <c r="F53" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G53">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" t="s">
-        <v>113</v>
+      <c r="B54" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D54" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E54" t="s">
         <v>41</v>
@@ -2780,21 +3157,24 @@
         <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>206</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" t="s">
-        <v>114</v>
+      <c r="B55" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="C55" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D55" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E55" t="s">
         <v>41</v>
@@ -2803,21 +3183,24 @@
         <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>209</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
-        <v>115</v>
+      <c r="B56" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E56" t="s">
         <v>52</v>
@@ -2828,19 +3211,22 @@
       <c r="G56">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>116</v>
+      <c r="B57" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D57" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E57" t="s">
         <v>52</v>
@@ -2849,38 +3235,44 @@
         <v>68</v>
       </c>
       <c r="G57" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>197</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>117</v>
+      <c r="B58" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E58" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F58" t="s">
         <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>211</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>118</v>
+      <c r="B59" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>48</v>
@@ -2889,122 +3281,137 @@
         <v>26</v>
       </c>
       <c r="E59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F59" t="s">
         <v>61</v>
       </c>
       <c r="G59" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>212</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>119</v>
+      <c r="B60" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
         <v>26</v>
       </c>
       <c r="E60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F60" t="s">
         <v>61</v>
       </c>
       <c r="G60" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>214</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" t="s">
-        <v>120</v>
+      <c r="B61" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="C61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F61" t="s">
         <v>68</v>
       </c>
       <c r="G61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>215</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" t="s">
-        <v>121</v>
+      <c r="B62" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="C62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D62" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F62" t="s">
         <v>63</v>
       </c>
       <c r="G62" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>217</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" t="s">
-        <v>122</v>
+      <c r="B63" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="C63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D63" t="s">
         <v>56</v>
       </c>
       <c r="E63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G63" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>218</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" t="s">
-        <v>123</v>
+      <c r="B64" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F64" t="s">
         <v>61</v>
@@ -3012,68 +3419,77 @@
       <c r="G64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
+      <c r="H64" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" t="s">
-        <v>124</v>
+      <c r="B65" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F65" t="s">
         <v>63</v>
       </c>
       <c r="G65" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>222</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" t="s">
-        <v>125</v>
+      <c r="B66" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D66" t="s">
         <v>56</v>
       </c>
       <c r="E66" t="s">
+        <v>225</v>
+      </c>
+      <c r="F66" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" t="s">
         <v>226</v>
       </c>
-      <c r="F66" t="s">
-        <v>68</v>
-      </c>
-      <c r="G66" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
-        <v>126</v>
+      <c r="B67" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" t="s">
         <v>39</v>
       </c>
       <c r="E67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F67" t="s">
         <v>68</v>
@@ -3081,39 +3497,45 @@
       <c r="G67">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" t="s">
-        <v>127</v>
+      <c r="B68" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="C68" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D68" t="s">
         <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F68" t="s">
         <v>68</v>
       </c>
       <c r="G68" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>228</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" t="s">
-        <v>128</v>
+      <c r="B69" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D69" t="s">
         <v>32</v>
@@ -3125,18 +3547,21 @@
         <v>68</v>
       </c>
       <c r="G69" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>229</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" t="s">
-        <v>129</v>
+      <c r="B70" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="C70" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D70" t="s">
         <v>56</v>
@@ -3150,19 +3575,22 @@
       <c r="G70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" t="s">
-        <v>130</v>
+      <c r="B71" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D71" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E71" t="s">
         <v>81</v>
@@ -3173,22 +3601,25 @@
       <c r="G71">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" t="s">
-        <v>131</v>
+      <c r="B72" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="C72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
         <v>32</v>
       </c>
       <c r="E72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F72" t="s">
         <v>68</v>
@@ -3196,45 +3627,51 @@
       <c r="G72">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" t="s">
-        <v>132</v>
+      <c r="B73" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="C73" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D73" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E73" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F73" t="s">
         <v>68</v>
       </c>
       <c r="G73" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>167</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" t="s">
-        <v>133</v>
+      <c r="B74" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C74" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F74" t="s">
         <v>66</v>
@@ -3242,45 +3679,51 @@
       <c r="G74">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" t="s">
-        <v>134</v>
+      <c r="B75" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D75" t="s">
         <v>26</v>
       </c>
       <c r="E75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F75" t="s">
         <v>68</v>
       </c>
       <c r="G75" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>168</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" t="s">
-        <v>135</v>
+      <c r="B76" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" t="s">
         <v>56</v>
       </c>
       <c r="E76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F76" t="s">
         <v>68</v>
@@ -3288,82 +3731,94 @@
       <c r="G76">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" s="4" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" t="s">
-        <v>136</v>
+      <c r="B77" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F77" t="s">
         <v>66</v>
       </c>
       <c r="G77" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>168</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" t="s">
-        <v>137</v>
+      <c r="B78" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D78" t="s">
         <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F78" t="s">
         <v>68</v>
       </c>
       <c r="G78" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>236</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>138</v>
+      <c r="B79" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G79" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>237</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
-        <v>139</v>
+      <c r="B80" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>40</v>
@@ -3372,73 +3827,82 @@
         <v>39</v>
       </c>
       <c r="E80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F80" t="s">
         <v>68</v>
       </c>
       <c r="G80" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>238</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" t="s">
-        <v>140</v>
+      <c r="B81" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E81" t="s">
         <v>52</v>
       </c>
       <c r="F81" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G81" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>239</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" t="s">
-        <v>141</v>
+      <c r="B82" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" t="s">
+        <v>200</v>
+      </c>
+      <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
+        <v>68</v>
+      </c>
+      <c r="G82" t="s">
         <v>241</v>
       </c>
-      <c r="D82" t="s">
-        <v>201</v>
-      </c>
-      <c r="E82" t="s">
-        <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>68</v>
-      </c>
-      <c r="G82" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" t="s">
-        <v>142</v>
+      <c r="B83" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E83" t="s">
         <v>41</v>
@@ -3447,18 +3911,21 @@
         <v>68</v>
       </c>
       <c r="G83" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>242</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" t="s">
-        <v>143</v>
+      <c r="B84" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D84" t="s">
         <v>39</v>
@@ -3467,70 +3934,79 @@
         <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G84" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>209</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" t="s">
-        <v>144</v>
+      <c r="B85" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" t="s">
         <v>39</v>
       </c>
       <c r="E85" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F85" t="s">
         <v>66</v>
       </c>
       <c r="G85" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>168</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
-        <v>145</v>
+      <c r="B86" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" t="s">
         <v>39</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F86" t="s">
         <v>66</v>
       </c>
       <c r="G86" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>247</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" t="s">
-        <v>146</v>
+      <c r="B87" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E87" t="s">
         <v>52</v>
@@ -3539,44 +4015,50 @@
         <v>68</v>
       </c>
       <c r="G87" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>249</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>147</v>
+      <c r="B88" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D88" t="s">
         <v>252</v>
-      </c>
-      <c r="D88" t="s">
-        <v>253</v>
       </c>
       <c r="E88" t="s">
         <v>52</v>
       </c>
       <c r="F88" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G88">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88" s="4" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" t="s">
-        <v>148</v>
+      <c r="B89" s="5" t="s">
+        <v>147</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D89" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E89" t="s">
         <v>52</v>
@@ -3585,47 +4067,53 @@
         <v>66</v>
       </c>
       <c r="G89" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>253</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
-        <v>149</v>
+      <c r="B90" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F90" t="s">
         <v>66</v>
       </c>
       <c r="G90" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>257</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
-        <v>150</v>
+      <c r="B91" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D91" t="s">
         <v>39</v>
       </c>
       <c r="E91" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F91" t="s">
         <v>68</v>
@@ -3633,19 +4121,22 @@
       <c r="G91">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" t="s">
-        <v>151</v>
+      <c r="B92" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>46</v>
       </c>
       <c r="D92" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E92" t="s">
         <v>41</v>
@@ -3654,38 +4145,44 @@
         <v>63</v>
       </c>
       <c r="G92" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>258</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" t="s">
-        <v>152</v>
+      <c r="B93" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D93" t="s">
         <v>39</v>
       </c>
       <c r="E93" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F93" t="s">
         <v>63</v>
       </c>
       <c r="G93" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>209</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" t="s">
-        <v>153</v>
+      <c r="B94" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>48</v>
@@ -3694,67 +4191,76 @@
         <v>32</v>
       </c>
       <c r="E94" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F94" t="s">
         <v>65</v>
       </c>
       <c r="G94" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>259</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" t="s">
-        <v>154</v>
+      <c r="B95" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E95" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F95" t="s">
         <v>68</v>
       </c>
       <c r="G95" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>262</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" t="s">
-        <v>155</v>
+      <c r="B96" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D96" t="s">
         <v>32</v>
       </c>
       <c r="E96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F96" t="s">
         <v>68</v>
       </c>
       <c r="G96" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+        <v>261</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" t="s">
-        <v>156</v>
+      <c r="B97" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>45</v>
@@ -3763,24 +4269,27 @@
         <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
         <v>63</v>
       </c>
       <c r="G97" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>263</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" t="s">
-        <v>128</v>
+      <c r="B98" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D98" t="s">
         <v>26</v>
@@ -3792,21 +4301,24 @@
         <v>68</v>
       </c>
       <c r="G98" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>264</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" t="s">
-        <v>157</v>
+      <c r="B99" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E99" t="s">
         <v>52</v>
@@ -3815,18 +4327,21 @@
         <v>68</v>
       </c>
       <c r="G99" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+        <v>265</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" t="s">
-        <v>158</v>
+      <c r="B100" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D100" t="s">
         <v>32</v>
@@ -3838,24 +4353,27 @@
         <v>68</v>
       </c>
       <c r="G100" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+        <v>267</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
-        <v>269</v>
+      <c r="B101" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E101" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F101" t="s">
         <v>63</v>
@@ -3863,13 +4381,16 @@
       <c r="G101">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101" s="4" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" t="s">
-        <v>270</v>
+      <c r="B102" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>53</v>
@@ -3878,13 +4399,16 @@
         <v>56</v>
       </c>
       <c r="E102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F102" t="s">
         <v>68</v>
       </c>
       <c r="G102" t="s">
         <v>71</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
